--- a/report/reliability/full-all.xlsx
+++ b/report/reliability/full-all.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9074761251317169</v>
+        <v>0.8833026625460336</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9082944896844147</v>
+        <v>0.8842007949427865</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9201233315524334</v>
+        <v>0.8947800727373105</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.36813474102902055</v>
+        <v>0.3700218968436725</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>9.904470151888479</v>
+        <v>7.635637865613373</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.00732749852961728</v>
+        <v>0.009345075255110606</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.564705882352941</v>
+        <v>2.435897435897436</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6770529757762286</v>
+        <v>0.7049521180719884</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3591169527435053</v>
+        <v>0.35473920476935494</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.899951509533747</v>
+        <v>0.876162228029408</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9012622896558244</v>
+        <v>0.8770917123040993</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9123950279720211</v>
+        <v>0.885735747397667</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.36325612253769535</v>
+        <v>0.37291454384897293</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.127842710897841</v>
+        <v>7.136147844433381</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.007962144623526972</v>
+        <v>0.009955890821810375</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.008781521089937811</v>
+        <v>0.009101438988636088</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.35822367315139536</v>
+        <v>0.35679867155993483</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.9004094294137243</v>
+        <v>0.8706585902222697</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9016493565285717</v>
+        <v>0.8725652684173802</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9133827079671984</v>
+        <v>0.8806978168574785</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3642645553463556</v>
+        <v>0.3632991050785625</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.167701650986244</v>
+        <v>6.847154285028419</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.007912654653027066</v>
+        <v>0.010424044940913101</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.008990133775794594</v>
+        <v>0.008722140698468333</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.35822367315139536</v>
+        <v>0.35434634501913603</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.902037456542376</v>
+        <v>0.8710892967982738</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9028050317231406</v>
+        <v>0.8727773111001497</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9133577303629676</v>
+        <v>0.8827632750590554</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3673038056505367</v>
+        <v>0.36374063416019126</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>9.288598450400293</v>
+        <v>6.860233175760031</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.007777753779718564</v>
+        <v>0.010373819640889619</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.008623825225812953</v>
+        <v>0.009325070147138929</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3591941610375192</v>
+        <v>0.34568692494662323</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.900302216606118</v>
+        <v>0.8705483125871507</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.9015244786601453</v>
+        <v>0.871975366035352</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9127467680411849</v>
+        <v>0.8819218430053364</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.3639386920821407</v>
+        <v>0.36207527125896954</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>9.15480787909557</v>
+        <v>6.810996751423122</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.007917628604290542</v>
+        <v>0.010415696017120541</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.009269419318662606</v>
+        <v>0.009590122235455764</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.35889320234374855</v>
+        <v>0.35434634501913603</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9021534177946575</v>
+        <v>0.8830980506600768</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.902646638828211</v>
+        <v>0.8838104831303369</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9137150097290585</v>
+        <v>0.8908698651964224</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.36688472366201247</v>
+        <v>0.3879620844343797</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>9.271859008908873</v>
+        <v>7.606628437243291</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.007752946123322403</v>
+        <v>0.009376507082315811</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.009648811435731014</v>
+        <v>0.008332317181953399</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3593364605986977</v>
+        <v>0.36255685030485296</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.9016750379807226</v>
+        <v>0.8732372873699484</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9023698187118719</v>
+        <v>0.873666399393181</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9139280902186572</v>
+        <v>0.8835000568255306</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.36615424253712353</v>
+        <v>0.36560133541171935</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>9.242734232447868</v>
+        <v>6.915550536014917</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.007790004127398734</v>
+        <v>0.010164055635071027</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.009574020371604212</v>
+        <v>0.01015118082798954</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3593364605986977</v>
+        <v>0.35473920476935494</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.9014524150291631</v>
+        <v>0.8789036187189417</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9023112127454325</v>
+        <v>0.8797910738190792</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.914011348785615</v>
+        <v>0.8875962150422054</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.36599990699745055</v>
+        <v>0.37884500722988945</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>9.23658935793825</v>
+        <v>7.318849787368931</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.007813187884199995</v>
+        <v>0.009728482543720322</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.009567081791576901</v>
+        <v>0.010168724945640452</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.35822367315139536</v>
+        <v>0.36022315850526376</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.9005157943010998</v>
+        <v>0.8737004895817218</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.9013484159422045</v>
+        <v>0.8734682371812262</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9134044234148828</v>
+        <v>0.8829141270730758</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3634801005504195</v>
+        <v>0.3651852999045495</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>9.136684672130004</v>
+        <v>6.903153941135397</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.007917836474260745</v>
+        <v>0.010124530017578376</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.009316254751047214</v>
+        <v>0.010164423863461045</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.35473920476935494</v>
+        <v>0.35064587867530755</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9049009914035671</v>
+        <v>0.8731355041896715</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9058709748975384</v>
+        <v>0.8740853549817413</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9157906988458974</v>
+        <v>0.8842614126315351</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3755784602314656</v>
+        <v>0.3664834233137894</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.623715680805965</v>
+        <v>6.9418879341238835</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.007541653620722666</v>
+        <v>0.010186777996128377</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.00949854153042923</v>
+        <v>0.009806367738788888</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.36264481555007055</v>
+        <v>0.35025301892508864</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9072518585541415</v>
+        <v>0.8714597687951705</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9079587313516486</v>
+        <v>0.8724969072154514</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9180894196642388</v>
+        <v>0.8834545123325885</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3813960654831989</v>
+        <v>0.36315694168053875</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>9.864691618067043</v>
+        <v>6.842947007487688</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.007346040304438555</v>
+        <v>0.010369303882647797</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.008431833611735013</v>
+        <v>0.009946688422370276</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.36645207869322116</v>
+        <v>0.34404078653611314</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9011958358379532</v>
+        <v>0.8748962501927511</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9020387612769432</v>
+        <v>0.8758110880433064</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9136640813402394</v>
+        <v>0.8859793091453805</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.36528386409401964</v>
+        <v>0.37015308725018276</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.20811918096574</v>
+        <v>7.052248660884592</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.007830967896635599</v>
+        <v>0.01003250462760033</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.009985539614580272</v>
+        <v>0.011084097345998356</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.35889320234374855</v>
+        <v>0.356405811809716</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.899912889560357</v>
+        <v>0.8779653033450378</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.9008039667699911</v>
+        <v>0.8791642412057652</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.912077781059439</v>
+        <v>0.8881860376196207</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.3620681311836634</v>
+        <v>0.377454384556592</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>9.081048278223689</v>
+        <v>7.2756959527423595</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.007942752707257448</v>
+        <v>0.009799935080410497</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.00898907508393507</v>
+        <v>0.01020469505061877</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.35473920476935494</v>
+        <v>0.35903550190492717</v>
       </c>
     </row>
     <row r="23">
@@ -2897,678 +2885,642 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.901200759796613</v>
+        <v>0.8763800192636575</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9014946033337862</v>
+        <v>0.8773214969864102</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9131504117371088</v>
+        <v>0.8886888362072922</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.363860806782623</v>
+        <v>0.3734135408394055</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>9.151728066113028</v>
+        <v>7.151387369710765</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.007843089410165462</v>
+        <v>0.00994029322093078</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.009319318317618156</v>
+        <v>0.011315819773062395</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3562105932061598</v>
+        <v>0.34943377813579607</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.906235994018346</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9072654018470542</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9184753102214482</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.37944717811106743</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.783461835362829</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.007443322012769577</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.009188213339426073</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.36645207869322116</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9015111082683442</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9024554035467129</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9150829578538842</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.3663798233244956</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.251721124079785</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.007811842697599666</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.01009085408110686</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.35889320234374855</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9028232954883889</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9035972963119597</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9163091922280138</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3694122300411022</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.37315305218002</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.007707535329104189</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.01038275485399724</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.3571787902709748</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9042077677691736</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9051417503085943</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9166450809847637</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3735818888779793</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>9.542045665540059</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.007597156245245111</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.009685570376641906</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.36112061336303347</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>330.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6423857998304245</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6241999871636655</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.589096574497383</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5507504412771089</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.4757575757575756</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.252724763525141</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>330.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.7178237916029405</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.6996625286936716</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.6828550463706999</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6424177558932681</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.2606060606060607</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.2298069618801941</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>330.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7070644412501963</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6961973819172552</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6725213634420967</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.6360867189069673</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.1</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.1375064714736252</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>330.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7153380314922613</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.7092672500841355</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6867470509200884</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6507312222695332</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.903030303030303</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.0674757454687396</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7063375103994549</v>
+        <v>0.49071000659067665</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6907270995610086</v>
+        <v>0.5061059840231055</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6766893873231639</v>
+        <v>0.44831747998150406</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6462678737056389</v>
+        <v>0.39693260611461084</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.2606060606060607</v>
+        <v>3.4212121212121214</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.2298069618801941</v>
+        <v>1.0437999248588326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6897799075056763</v>
+        <v>0.6704873857338798</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6795458786219198</v>
+        <v>0.6815944866338423</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6607983886989123</v>
+        <v>0.652986848163148</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.6323221480196599</v>
+        <v>0.6052703381679249</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.1</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1375064714736252</v>
+        <v>0.9746534468408261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6580849262494546</v>
+        <v>0.5563688462960618</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6458475212812972</v>
+        <v>0.5776573540233276</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6274504911242712</v>
+        <v>0.531255558154386</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5893294730007845</v>
+        <v>0.4818869221641794</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.4757575757575756</v>
+        <v>2.809090909090909</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.252724763525141</v>
+        <v>0.9108810779761409</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6914923837222172</v>
+        <v>0.6655362542366257</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6831589593565306</v>
+        <v>0.6848595583052854</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6659157595049269</v>
+        <v>0.6581990149132365</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.63814532927773</v>
+        <v>0.6051080713840498</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.903030303030303</v>
+        <v>2.081818181818182</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.0674757454687396</v>
+        <v>0.9005079773647738</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.637770297579423</v>
+        <v>0.6742148821314324</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6504941851591881</v>
+        <v>0.6746718077491386</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6287186533224539</v>
+        <v>0.6435608801516257</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5877372748748372</v>
+        <v>0.5987464701658353</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.081818181818182</v>
+        <v>2.463636363636364</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.9005079773647738</v>
+        <v>1.1191394277997884</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6510283930645238</v>
+        <v>0.7104663885616936</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6585935555674839</v>
+        <v>0.7007782355879245</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6360407557084209</v>
+        <v>0.6725096000238971</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5980105382732437</v>
+        <v>0.6303062357588645</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.066666666666667</v>
+        <v>2.0272727272727273</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9746534468408261</v>
+        <v>1.2749093125320676</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6607503232977158</v>
+        <v>0.6514497461430669</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6603047848660721</v>
+        <v>0.645872064563896</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6365237622725975</v>
+        <v>0.605857406910228</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6003839869125018</v>
+        <v>0.5674976081833691</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.463636363636364</v>
+        <v>2.896969696969697</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1191394277997884</v>
+        <v>1.17793411669476</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.6967188806741818</v>
+        <v>0.5892516392430783</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.6882436939991706</v>
+        <v>0.5885710443646576</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.6680755005709056</v>
+        <v>0.5407508184240197</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6326132005549662</v>
+        <v>0.5046413338353356</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.0272727272727273</v>
+        <v>2.2515151515151515</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.2749093125320676</v>
+        <v>1.0720605424884433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.5400538646621861</v>
+        <v>0.6098676006007665</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.5541004655831325</v>
+        <v>0.6202838287841081</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5200183361742531</v>
+        <v>0.5703347043698972</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.4803323231435792</v>
+        <v>0.5385192678768163</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.809090909090909</v>
+        <v>2.909090909090909</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9108810779761409</v>
+        <v>0.9473571096636021</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4795809992073691</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.4895964856477207</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.44523258831247503</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.4051768072495752</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.4212121212121214</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.0437999248588326</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6715314461056675</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.668244068312992</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.6450991746349712</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6091787074181882</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.896969696969697</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.17793411669476</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7060823864029434</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7038992154313816</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.6902121711443427</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.6589708694610552</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.7363636363636363</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.9863254029463984</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.6756667666186038</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6840225297742473</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.6651004511230681</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6317432221484004</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.6575757575757577</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.8617259499309388</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5020990712891609</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5112052037557239</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.46427568878287356</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.43390310254938613</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.775757575757576</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.9853116714969057</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.20303030303030303</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.4484848484848485</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.14242424242424243</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.08181818181818182</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.12424242424242424</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6566913216765212</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6560923788886218</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6264833928774981</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.5989751884676201</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.7636363636363637</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.065575798458417</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.17272727272727273</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.04242424242424243</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6135343085118737</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6224699013329773</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5861458824970528</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.5581731092310177</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.909090909090909</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9473571096636021</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.44242424242424244</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.1484848484848485</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.3</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.08484848484848485</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.024242424242424242</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5779340040623105</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5762378903399137</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5387649607506627</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.5107272020488526</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.2515151515151515</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.0720605424884433</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4636363636363636</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.12424242424242424</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.08484848484848485</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.024242424242424242</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.05757575757575758</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.403030303030303</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.31212121212121213</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.08484848484848485</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.015151515151515152</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.3212121212121212</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.42727272727272725</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.04242424242424243</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5242424242424243</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.15757575757575756</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.048484848484848485</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.024242424242424242</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.36666666666666664</v>
+        <v>0.19090909090909092</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.2545454545454545</v>
+        <v>0.4212121212121212</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.17272727272727273</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.16363636363636364</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.04242424242424243</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.44242424242424244</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.1484848484848485</v>
+        <v>0.22424242424242424</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3</v>
+        <v>0.12424242424242424</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.08484848484848485</v>
+        <v>0.08787878787878788</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.024242424242424242</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.20303030303030303</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.4484848484848485</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.14242424242424243</v>
+        <v>0.3424242424242424</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.08181818181818182</v>
+        <v>0.24848484848484848</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.12424242424242424</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4636363636363636</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="C56" t="n" s="110">
+        <v>0.28484848484848485</v>
+      </c>
+      <c r="D56" t="n" s="111">
         <v>0.30303030303030304</v>
       </c>
-      <c r="D56" t="n" s="111">
-        <v>0.12424242424242424</v>
-      </c>
       <c r="E56" t="n" s="112">
-        <v>0.08484848484848485</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.024242424242424242</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.24545454545454545</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.5242424242424243</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.15757575757575756</v>
+        <v>0.45151515151515154</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.048484848484848485</v>
+        <v>0.20303030303030303</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.024242424242424242</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.31212121212121213</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.08484848484848485</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.19090909090909092</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.4212121212121212</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.04242424242424243</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.4909090909090909</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.22424242424242424</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.12424242424242424</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.08787878787878788</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.3212121212121212</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.42727272727272725</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.15454545454545454</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.04242424242424243</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.05757575757575758</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2909090909090909</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.403030303030303</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.1696969696969697</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.3424242424242424</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.24848484848484848</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.4909090909090909</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.17272727272727273</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.05757575757575758</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.45151515151515154</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.06363636363636363</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.00909090909090909</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.3212121212121212</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.3</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2878787878787879</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.1</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.3696969696969697</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.23939393939393938</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.24848484848484848</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.04242424242424243</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.45151515151515154</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.20303030303030303</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.04242424242424243</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.28484848484848485</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3703,7 @@
         <v>0.8316646040493905</v>
       </c>
       <c r="C6" t="n" s="147">
-        <v>0.79194873549651</v>
+        <v>0.7919487354965101</v>
       </c>
       <c r="D6" t="n" s="148">
         <v>0.5525987937873315</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7569250025078198</v>
+        <v>0.8035647517451482</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7597235683064554</v>
+        <v>0.804441720189631</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6826655719487442</v>
+        <v>0.7343888037198614</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5131350504894644</v>
+        <v>0.5782705371640081</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>3.1618730266288786</v>
+        <v>4.113565127335394</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.023088249176331718</v>
+        <v>0.018519535047059357</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.003164327326709753</v>
+        <v>0.0011714594376263754</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5424265311634879</v>
+        <v>0.5703520506945408</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7751834837719267</v>
+        <v>0.7569250025078198</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7762263415969868</v>
+        <v>0.7597235683064554</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.706692733092076</v>
+        <v>0.6826655719487444</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5362355569210057</v>
+        <v>0.5131350504894644</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.4688012303888534</v>
+        <v>3.1618730266288786</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.021183465276430304</v>
+        <v>0.023088249176331718</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.005899181356273389</v>
+        <v>0.003164327326709753</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5703520506945408</v>
+        <v>0.5424265311634879</v>
       </c>
     </row>
     <row r="13">
@@ -4153,25 +3829,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8035647517451482</v>
+        <v>0.7751834837719267</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.804441720189631</v>
+        <v>0.7762263415969868</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7343888037198614</v>
+        <v>0.706692733092076</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.5782705371640081</v>
+        <v>0.5362355569210057</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.113565127335394</v>
+        <v>3.4688012303888534</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.018519535047059357</v>
+        <v>0.021183465276430304</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.0011714594376263754</v>
+        <v>0.005899181356273383</v>
       </c>
       <c r="I13" t="n" s="179">
         <v>0.5703520506945408</v>
@@ -4200,10 +3876,10 @@
         <v>0.0184212603960365</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.0013847131451905673</v>
+        <v>0.0013847131451905665</v>
       </c>
       <c r="I14" t="n" s="179">
-        <v>0.5900732196181038</v>
+        <v>0.5900732196181037</v>
       </c>
     </row>
     <row r="15">
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>330.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8570558691114648</v>
+        <v>0.803636153192873</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8514476737709304</v>
+        <v>0.7915171506490856</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7911745718524426</v>
+        <v>0.684283531047132</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7206449463959277</v>
+        <v>0.6247218311577163</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.2606060606060607</v>
+        <v>2.4757575757575756</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.2298069618801941</v>
+        <v>1.252724763525141</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>330.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8261360943290491</v>
+        <v>0.8570558691114648</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8301931241313578</v>
+        <v>0.8514476737709304</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.7505107979724188</v>
+        <v>0.7911745718524426</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.6842844304708331</v>
+        <v>0.7206449463959277</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.1</v>
+        <v>2.2606060606060607</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.1375064714736252</v>
+        <v>1.2298069618801941</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>330.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.803636153192873</v>
+        <v>0.8261360943290491</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7915171506490856</v>
+        <v>0.8301931241313578</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6842835310471319</v>
+        <v>0.7505107979724187</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6247218311577163</v>
+        <v>0.6842844304708331</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.4757575757575756</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.252724763525141</v>
+        <v>1.1375064714736252</v>
       </c>
     </row>
     <row r="22">
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.36666666666666664</v>
+        <v>0.20303030303030303</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.2545454545454545</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.17272727272727273</v>
+        <v>0.14242424242424243</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.16363636363636364</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.04242424242424243</v>
+        <v>0.12424242424242424</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.44242424242424244</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.1484848484848485</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.3</v>
+        <v>0.17272727272727273</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.08484848484848485</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.024242424242424242</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.20303030303030303</v>
+        <v>0.44242424242424244</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.4484848484848485</v>
+        <v>0.1484848484848485</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.14242424242424243</v>
+        <v>0.3</v>
       </c>
       <c r="E29" t="n" s="226">
-        <v>0.08181818181818182</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.12424242424242424</v>
+        <v>0.024242424242424242</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.8012866584134734</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.7951453718393537</v>
+        <v>0.7951453718393535</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.4019362157408933</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7398786087093019</v>
+        <v>0.7971075076159975</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7442596393776149</v>
+        <v>0.8026398525678384</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7309968391211671</v>
+        <v>0.7775866036438113</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.3679059935327773</v>
+        <v>0.4485423305892217</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.910215804679166</v>
+        <v>4.066879068600864</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.022537427208208553</v>
+        <v>0.01723149433447904</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.016840071335130498</v>
+        <v>0.010479978347524082</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.341208394061146</v>
+        <v>0.48716851142987494</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.7496130925634786</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7353445948551056</v>
+        <v>0.7353445948551057</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.37451673965838816</v>
@@ -4671,7 +4347,7 @@
         <v>2.9938190468426233</v>
       </c>
       <c r="G12" t="n" s="291">
-        <v>0.022695003087567053</v>
+        <v>0.022695003087567046</v>
       </c>
       <c r="H12" t="n" s="292">
         <v>0.01655277118337983</v>
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7614016682455194</v>
+        <v>0.7728187878267062</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7724605435608181</v>
+        <v>0.7806664058573798</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7548528334928473</v>
+        <v>0.7583288479061412</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.4043961881813617</v>
+        <v>0.41583769817474014</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.394842176601957</v>
+        <v>3.559265095294778</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.020871877425138328</v>
+        <v>0.01957883928567705</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.012316956689245496</v>
+        <v>0.01947805851059947</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.4051314051868017</v>
+        <v>0.48716851142987494</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7628218937219444</v>
+        <v>0.7398786087093019</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7695399964740233</v>
+        <v>0.7442596393776149</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7564789839987761</v>
+        <v>0.7309968391211672</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.40041834430887063</v>
+        <v>0.3679059935327773</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.339147724985966</v>
+        <v>2.910215804679166</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.02098439006535244</v>
+        <v>0.022537427208208553</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.016119292118299492</v>
+        <v>0.016840071335130498</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.4051314051868017</v>
+        <v>0.341208394061146</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7728187878267062</v>
+        <v>0.7614016682455194</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7806664058573798</v>
+        <v>0.7724605435608181</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7583288479061411</v>
+        <v>0.7548528334928473</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.41583769817474014</v>
+        <v>0.4043961881813617</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.559265095294778</v>
+        <v>3.394842176601957</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.01957883928567705</v>
+        <v>0.020871877425138328</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.01947805851059947</v>
+        <v>0.012316956689245494</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.48716851142987494</v>
+        <v>0.4051314051868017</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7971075076159975</v>
+        <v>0.7628218937219444</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8026398525678384</v>
+        <v>0.7695399964740233</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7775866036438113</v>
+        <v>0.7564789839987762</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.4485423305892217</v>
+        <v>0.40041834430887063</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>4.066879068600864</v>
+        <v>3.339147724985966</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.01723149433447904</v>
+        <v>0.02098439006535244</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.010479978347524082</v>
+        <v>0.016119292118299492</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.48716851142987494</v>
+        <v>0.4051314051868017</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>330.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7721639073786637</v>
+        <v>0.5865505174165128</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7883276837472771</v>
+        <v>0.5985719413748782</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7437075024041938</v>
+        <v>0.47926141096876146</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.66624593194506</v>
+        <v>0.3962550526569509</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.081818181818182</v>
+        <v>3.4212121212121214</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.9005079773647738</v>
+        <v>1.0437999248588326</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7727710862567106</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.7224622124488569</v>
+        <v>0.722462212448857</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.6524657268702223</v>
@@ -4895,22 +4571,22 @@
         <v>330.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7177764585367109</v>
+        <v>0.6506837009619042</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.7024579105455432</v>
+        <v>0.6755334208935019</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6270849858798913</v>
+        <v>0.5848067847910101</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.5542719060241483</v>
+        <v>0.5046392005475451</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.463636363636364</v>
+        <v>2.809090909090909</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1191394277997884</v>
+        <v>0.9108810779761409</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>330.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7449683524408145</v>
+        <v>0.7721639073786637</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7118186868979915</v>
+        <v>0.7883276837472771</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6319783428739828</v>
+        <v>0.7437075024041938</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.5638835215981763</v>
+        <v>0.66624593194506</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.0272727272727273</v>
+        <v>2.081818181818182</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.2749093125320676</v>
+        <v>0.9005079773647738</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>330.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6506837009619042</v>
+        <v>0.7177764585367109</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.6755334208935019</v>
+        <v>0.7024579105455432</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.5848067847910101</v>
+        <v>0.6270849858798908</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.5046392005475451</v>
+        <v>0.5542719060241483</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.809090909090909</v>
+        <v>2.463636363636364</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9108810779761409</v>
+        <v>1.1191394277997884</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>330.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5865505174165128</v>
+        <v>0.7449683524408145</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5985719413748782</v>
+        <v>0.7118186868979915</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.47926141096876146</v>
+        <v>0.6319783428739828</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.3962550526569509</v>
+        <v>0.5638835215981763</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.4212121212121214</v>
+        <v>2.0272727272727273</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.0437999248588326</v>
+        <v>1.2749093125320676</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.24545454545454545</v>
+        <v>0.05757575757575758</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.5242424242424243</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.15757575757575756</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.048484848484848485</v>
+        <v>0.403030303030303</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.024242424242424242</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,16 +4754,16 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.19090909090909092</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.4212121212121212</v>
+        <v>0.3212121212121212</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.16363636363636364</v>
+        <v>0.42727272727272725</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.18181818181818182</v>
+        <v>0.15454545454545454</v>
       </c>
       <c r="F33" t="n" s="341">
         <v>0.04242424242424243</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.4909090909090909</v>
+        <v>0.24545454545454545</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.22424242424242424</v>
+        <v>0.5242424242424243</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.12424242424242424</v>
+        <v>0.15757575757575756</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.08787878787878788</v>
+        <v>0.048484848484848485</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.07272727272727272</v>
+        <v>0.024242424242424242</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,16 +4800,16 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.05454545454545454</v>
+        <v>0.19090909090909092</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.3212121212121212</v>
+        <v>0.4212121212121212</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.42727272727272725</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.15454545454545454</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F35" t="n" s="341">
         <v>0.04242424242424243</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.05757575757575758</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.12121212121212122</v>
+        <v>0.22424242424242424</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.2909090909090909</v>
+        <v>0.12424242424242424</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.403030303030303</v>
+        <v>0.08787878787878788</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.12727272727272726</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8203885366772902</v>
+        <v>0.6936647689182546</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8220494928075656</v>
+        <v>0.6938511687724767</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8098210027633996</v>
+        <v>0.6074410193854515</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.39756651494471834</v>
+        <v>0.43034929897246704</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>4.619540038279333</v>
+        <v>2.266385163028178</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.014914147883797451</v>
+        <v>0.028565170532874374</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.8558441558441556</v>
+        <v>2.6858585858585857</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7063375734372329</v>
+        <v>0.8425340230971957</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.3760971848931229</v>
+        <v>0.4001456076836073</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7792141921146235</v>
+        <v>0.549476013459486</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7832804831707412</v>
+        <v>0.552520576235737</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7612503064566548</v>
+        <v>0.3817122144637274</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3759269492010245</v>
+        <v>0.3817122144637275</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>3.6142590876475795</v>
+        <v>1.234739625763912</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.018840266912734403</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.007177920036226587</v>
-      </c>
+        <v>0.049160784268614845</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.361208578608251</v>
+        <v>0.3817122144637275</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7883921029131369</v>
+        <v>0.5620152792107675</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7894608069603631</v>
+        <v>0.5715771352461059</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.768190341364176</v>
+        <v>0.4001456076836073</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.3845970471735895</v>
+        <v>0.4001456076836072</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.749709474813728</v>
+        <v>1.3341424612676693</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.01773143529420832</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.007029825365425678</v>
-      </c>
+        <v>0.046893440946394034</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3760971848931229</v>
+        <v>0.4001456076836073</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7893026947498838</v>
+        <v>0.6728073070890426</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.788108314687888</v>
+        <v>0.6747858779122231</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7649869408936822</v>
+        <v>0.5091900747700664</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.3826774575897043</v>
+        <v>0.5091900747700664</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.719392356179624</v>
+        <v>2.0748972202692197</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.017698271325746733</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.0058553514391993045</v>
-      </c>
+        <v>0.03580834394884019</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.3711258500978335</v>
+        <v>0.5091900747700665</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8177606080282168</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8205541998811243</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8020063260636472</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.43250140052890557</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.57271331698786</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.015383192769358747</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.00477513205010251</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.44373923742531607</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7926462993187896</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.7951020937045198</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7778259399030771</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.3927420129084503</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>3.8804793473971135</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.01747307232402147</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.007866570843296141</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.3711258500978335</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.8003126415752503</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.8020602699488816</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.7850429206018117</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.4031064050055274</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.052042860429021</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.016778828052530777</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.00947325565039348</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.361208578608251</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.8049977559150504</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8074674940410026</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7869477475625206</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.4114143322058266</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>4.193928137064631</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.016417094284112328</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.006623687630693855</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.4001456076836073</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>330.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.831973322213491</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8081344977032331</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6615463176661397</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5505976659122458</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.896969696969697</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.17793411669476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>330.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8045058628354551</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.8003324851458758</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6450950405982994</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.5392949801945995</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.2515151515151515</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.0720605424884433</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>330.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7231838027512144</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7541789478469831</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5347695028185114</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.4503664643689687</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.909090909090909</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9473571096636021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>330.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7810968263596288</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7621124984184962</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7214498311680678</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6561056841865059</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.896969696969697</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.17793411669476</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.1696969696969697</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.3424242424242424</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.24848484848484848</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>330.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7281051719246195</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7353971213967341</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.6851150317944837</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.6106823000307191</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.7363636363636363</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.9863254029463984</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.28484848484848485</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>330.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7226405609686956</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7413119979786151</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.6964558893621454</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.6214948230574207</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.6575757575757577</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.8617259499309388</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>330.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.583557592135481</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.5877883094870366</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.4711380306657992</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.4277337835651089</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.775757575757576</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.9853116714969057</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>330.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7166922561568502</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7102998467033356</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6437798633494508</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.5835824884080111</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.7636363636363637</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.065575798458417</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>330.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.66754460121846</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6783638013032771</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5952186914102834</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.5385851426026914</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.909090909090909</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9473571096636021</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>330.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6644554864821309</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6527643896094687</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5675927120524789</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5138490336499463</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.2515151515151515</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.0720605424884433</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.1696969696969697</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.3424242424242424</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.24848484848484848</v>
-      </c>
-      <c r="F33" t="n" s="455">
+      <c r="B27" t="n" s="451">
         <v>0.07575757575757576</v>
       </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.4909090909090909</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.17272727272727273</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.05757575757575758</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="D35" t="n" s="453">
+      <c r="C27" t="n" s="452">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="D27" t="n" s="453">
         <v>0.45151515151515154</v>
       </c>
-      <c r="E35" t="n" s="454">
-        <v>0.06363636363636363</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.00909090909090909</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.3212121212121212</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.3</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2878787878787879</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.1</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.3696969696969697</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.23939393939393938</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.24848484848484848</v>
-      </c>
-      <c r="F37" t="n" s="455">
+      <c r="E27" t="n" s="454">
+        <v>0.20303030303030303</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.04242424242424243</v>
       </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.45151515151515154</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.20303030303030303</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.04242424242424243</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.28484848484848485</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
